--- a/REGULAR/DSWD/AMBION DORINDA.xlsx
+++ b/REGULAR/DSWD/AMBION DORINDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B5FEE-575E-49DE-8275-CD711EFF118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'CASUAL LEAVE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'PERMANENT LEAVE'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="434">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1334,12 +1333,18 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/19-22/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1712,6 +1717,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1748,261 +1762,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2361,6 +2125,247 @@
     <dxf>
       <border outline="0">
         <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
@@ -2446,7 +2451,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2494,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2558,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2618,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2684,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2747,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2845,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2904,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2969,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3012,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3087,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3273,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3339,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3397,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3463,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3519,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3589,7 +3594,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3637,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3703,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3759,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3852,7 +3857,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3915,7 +3920,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3964,7 +3969,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3981,26 +3986,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K660" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A8:K660" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K660" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A8:K660"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4012,26 +4017,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B945AD2C-93F8-4DFB-8207-CED2DBA8FAE7}" name="Table15" displayName="Table15" ref="A8:K55" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K55" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K55" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K55"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F375FD10-7BBD-46EC-9997-516B40CA2B48}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{76D188C4-C324-4DCB-8430-A2AC24574D0B}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{3CE561DE-C56F-4591-BE14-33B7A4CB609F}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3AAB8B5B-01B7-4540-8BCD-729DFBE7900B}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{BB388316-D0B6-4ED7-AA47-F23ADC645DBF}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2A9EC80D-9D34-436B-97DF-961995B4B550}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F1C5037B-469E-4F0B-90EB-DF7F616B2B2B}" name="EARNED " dataDxfId="0">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B55FEF37-DBF8-4A06-83FE-982566BF9573}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{BEC46F03-0801-40E1-9918-4901F0B0A831}" name="BALANCE " dataDxfId="3">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DF2BEF0D-8BEB-4133-8A63-9DC441EAD8A4}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{D373A4B5-0F31-4BEB-A7FA-FD87C21C4535}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4043,13 +4048,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="20">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4058,14 +4063,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="16">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="15">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4369,7 +4374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4379,7 +4384,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4387,97 +4392,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K660"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3708" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3705" topLeftCell="A611" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="H628" sqref="H628"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4485,7 +4490,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4498,24 +4503,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4550,7 +4555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4559,7 +4564,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>53.959500000000048</v>
+        <v>47.959500000000048</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4574,7 +4579,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -4596,7 +4601,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34486</v>
       </c>
@@ -4618,7 +4623,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34516</v>
       </c>
@@ -4638,7 +4643,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34547</v>
       </c>
@@ -4658,7 +4663,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34578</v>
       </c>
@@ -4678,7 +4683,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34608</v>
       </c>
@@ -4698,7 +4703,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34639</v>
       </c>
@@ -4718,7 +4723,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34669</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>44</v>
       </c>
@@ -4755,7 +4760,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34700</v>
       </c>
@@ -4775,7 +4780,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34731</v>
       </c>
@@ -4795,7 +4800,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34759</v>
       </c>
@@ -4815,7 +4820,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>34790</v>
       </c>
@@ -4835,7 +4840,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34820</v>
       </c>
@@ -4855,7 +4860,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>34851</v>
       </c>
@@ -4875,7 +4880,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34881</v>
       </c>
@@ -4895,7 +4900,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>34912</v>
       </c>
@@ -4915,7 +4920,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34943</v>
       </c>
@@ -4935,7 +4940,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>34973</v>
       </c>
@@ -4955,7 +4960,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35004</v>
       </c>
@@ -4974,7 +4979,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35034</v>
       </c>
@@ -4998,7 +5003,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>54</v>
       </c>
@@ -5020,7 +5025,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35065</v>
       </c>
@@ -5040,7 +5045,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35096</v>
       </c>
@@ -5060,7 +5065,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35125</v>
       </c>
@@ -5080,7 +5085,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35156</v>
       </c>
@@ -5100,7 +5105,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>35186</v>
       </c>
@@ -5120,7 +5125,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35217</v>
       </c>
@@ -5140,7 +5145,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35247</v>
       </c>
@@ -5160,7 +5165,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35278</v>
       </c>
@@ -5180,7 +5185,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35309</v>
       </c>
@@ -5200,7 +5205,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35339</v>
       </c>
@@ -5220,7 +5225,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35370</v>
       </c>
@@ -5240,7 +5245,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35400</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>46</v>
@@ -5286,7 +5291,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>53</v>
       </c>
@@ -5308,7 +5313,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35431</v>
       </c>
@@ -5328,7 +5333,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35462</v>
       </c>
@@ -5354,7 +5359,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35490</v>
       </c>
@@ -5374,7 +5379,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35521</v>
       </c>
@@ -5400,7 +5405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35551</v>
       </c>
@@ -5420,7 +5425,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>35582</v>
       </c>
@@ -5440,7 +5445,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35612</v>
       </c>
@@ -5460,7 +5465,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="48"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>35643</v>
       </c>
@@ -5480,7 +5485,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35674</v>
       </c>
@@ -5500,7 +5505,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="48"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>35704</v>
       </c>
@@ -5520,7 +5525,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35735</v>
       </c>
@@ -5540,7 +5545,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35765</v>
       </c>
@@ -5564,7 +5569,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>52</v>
       </c>
@@ -5586,7 +5591,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35796</v>
       </c>
@@ -5610,7 +5615,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35827</v>
       </c>
@@ -5630,7 +5635,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>35855</v>
       </c>
@@ -5650,7 +5655,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>35886</v>
       </c>
@@ -5672,7 +5677,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>35916</v>
       </c>
@@ -5692,7 +5697,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>35947</v>
       </c>
@@ -5716,7 +5721,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35977</v>
       </c>
@@ -5740,7 +5745,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36008</v>
       </c>
@@ -5764,7 +5769,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="48"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36039</v>
       </c>
@@ -5788,7 +5793,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36069</v>
       </c>
@@ -5812,7 +5817,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>36100</v>
       </c>
@@ -5836,7 +5841,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36130</v>
       </c>
@@ -5862,7 +5867,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>85</v>
@@ -5882,7 +5887,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>46</v>
@@ -5902,7 +5907,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
         <v>51</v>
       </c>
@@ -5924,7 +5929,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36161</v>
       </c>
@@ -5944,7 +5949,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="48"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>92</v>
@@ -5964,7 +5969,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36192</v>
       </c>
@@ -5984,7 +5989,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>47</v>
@@ -6006,7 +6011,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>93</v>
@@ -6028,7 +6033,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>92</v>
@@ -6048,7 +6053,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36220</v>
       </c>
@@ -6074,7 +6079,7 @@
         <v>36229</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>94</v>
@@ -6094,7 +6099,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36251</v>
       </c>
@@ -6120,7 +6125,7 @@
         <v>36262</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>98</v>
@@ -6140,7 +6145,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36281</v>
       </c>
@@ -6164,7 +6169,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>36312</v>
       </c>
@@ -6188,7 +6193,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>36342</v>
       </c>
@@ -6212,7 +6217,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>36373</v>
       </c>
@@ -6236,7 +6241,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36404</v>
       </c>
@@ -6260,7 +6265,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36434</v>
       </c>
@@ -6284,7 +6289,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36465</v>
       </c>
@@ -6310,7 +6315,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>105</v>
@@ -6330,7 +6335,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36495</v>
       </c>
@@ -6354,7 +6359,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>90</v>
       </c>
@@ -6376,7 +6381,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36526</v>
       </c>
@@ -6402,7 +6407,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>108</v>
@@ -6422,7 +6427,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36557</v>
       </c>
@@ -6448,7 +6453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>109</v>
@@ -6468,7 +6473,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>36586</v>
       </c>
@@ -6494,7 +6499,7 @@
         <v>36602</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>110</v>
@@ -6514,7 +6519,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>36617</v>
       </c>
@@ -6540,7 +6545,7 @@
         <v>36626</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>111</v>
@@ -6560,7 +6565,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36647</v>
       </c>
@@ -6586,7 +6591,7 @@
         <v>36670</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>56</v>
@@ -6608,7 +6613,7 @@
         <v>36671</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>56</v>
@@ -6630,7 +6635,7 @@
         <v>36704</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>98</v>
@@ -6650,7 +6655,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36678</v>
       </c>
@@ -6674,7 +6679,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36708</v>
       </c>
@@ -6700,7 +6705,7 @@
         <v>36713</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>114</v>
@@ -6720,7 +6725,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>36739</v>
       </c>
@@ -6744,7 +6749,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36770</v>
       </c>
@@ -6768,7 +6773,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36800</v>
       </c>
@@ -6792,7 +6797,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36831</v>
       </c>
@@ -6818,7 +6823,7 @@
         <v>36844</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>118</v>
@@ -6840,7 +6845,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36861</v>
       </c>
@@ -6864,7 +6869,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>119</v>
@@ -6886,7 +6891,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
         <v>89</v>
       </c>
@@ -6908,7 +6913,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>36892</v>
       </c>
@@ -6932,7 +6937,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36923</v>
       </c>
@@ -6958,7 +6963,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>124</v>
@@ -6978,7 +6983,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36951</v>
       </c>
@@ -7002,7 +7007,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>36982</v>
       </c>
@@ -7026,7 +7031,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37012</v>
       </c>
@@ -7052,7 +7057,7 @@
         <v>37040</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>127</v>
@@ -7072,7 +7077,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37043</v>
       </c>
@@ -7096,7 +7101,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37073</v>
       </c>
@@ -7122,7 +7127,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>133</v>
@@ -7142,7 +7147,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37104</v>
       </c>
@@ -7166,7 +7171,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>37135</v>
       </c>
@@ -7186,7 +7191,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37165</v>
       </c>
@@ -7212,7 +7217,7 @@
         <v>37186</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>130</v>
@@ -7232,7 +7237,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37196</v>
       </c>
@@ -7258,7 +7263,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>56</v>
@@ -7280,7 +7285,7 @@
         <v>37210</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>47</v>
@@ -7302,7 +7307,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>131</v>
@@ -7322,7 +7327,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>37226</v>
       </c>
@@ -7346,7 +7351,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="47" t="s">
         <v>88</v>
       </c>
@@ -7368,7 +7373,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37257</v>
       </c>
@@ -7394,7 +7399,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>137</v>
@@ -7416,7 +7421,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37288</v>
       </c>
@@ -7442,7 +7447,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>49</v>
@@ -7464,7 +7469,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>56</v>
@@ -7486,7 +7491,7 @@
         <v>37316</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>55</v>
@@ -7508,7 +7513,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>138</v>
@@ -7530,7 +7535,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37316</v>
       </c>
@@ -7554,7 +7559,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37347</v>
       </c>
@@ -7580,7 +7585,7 @@
         <v>37348</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>140</v>
@@ -7600,7 +7605,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37377</v>
       </c>
@@ -7626,7 +7631,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>56</v>
@@ -7648,7 +7653,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37408</v>
       </c>
@@ -7670,7 +7675,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>37438</v>
       </c>
@@ -7690,7 +7695,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>37469</v>
       </c>
@@ -7716,7 +7721,7 @@
         <v>37483</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>56</v>
@@ -7738,7 +7743,7 @@
         <v>37489</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>141</v>
@@ -7758,7 +7763,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37500</v>
       </c>
@@ -7778,7 +7783,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37530</v>
       </c>
@@ -7804,7 +7809,7 @@
         <v>37552</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>79</v>
@@ -7824,7 +7829,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>37561</v>
       </c>
@@ -7850,7 +7855,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>113</v>
@@ -7872,7 +7877,7 @@
         <v>37574</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>63</v>
@@ -7894,7 +7899,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>149</v>
@@ -7914,7 +7919,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>37591</v>
       </c>
@@ -7940,7 +7945,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>148</v>
@@ -7960,7 +7965,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="47" t="s">
         <v>91</v>
       </c>
@@ -7982,7 +7987,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37622</v>
       </c>
@@ -8008,7 +8013,7 @@
         <v>37642</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>63</v>
@@ -8030,7 +8035,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>156</v>
@@ -8050,7 +8055,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37653</v>
       </c>
@@ -8074,7 +8079,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>37681</v>
       </c>
@@ -8100,7 +8105,7 @@
         <v>37691</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>158</v>
@@ -8122,7 +8127,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37712</v>
       </c>
@@ -8146,7 +8151,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>37742</v>
       </c>
@@ -8172,7 +8177,7 @@
         <v>37749</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>162</v>
@@ -8194,7 +8199,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>37773</v>
       </c>
@@ -8218,7 +8223,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>37803</v>
       </c>
@@ -8244,7 +8249,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>164</v>
@@ -8264,7 +8269,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37834</v>
       </c>
@@ -8290,7 +8295,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>165</v>
@@ -8310,7 +8315,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>37865</v>
       </c>
@@ -8336,7 +8341,7 @@
         <v>37883</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>166</v>
@@ -8356,7 +8361,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>37895</v>
       </c>
@@ -8382,7 +8387,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>56</v>
@@ -8404,7 +8409,7 @@
         <v>37914</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>169</v>
@@ -8424,7 +8429,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>37926</v>
       </c>
@@ -8450,7 +8455,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>168</v>
@@ -8470,7 +8475,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>37956</v>
       </c>
@@ -8494,7 +8499,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="47" t="s">
         <v>155</v>
       </c>
@@ -8516,7 +8521,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>37987</v>
       </c>
@@ -8542,7 +8547,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38018</v>
       </c>
@@ -8568,7 +8573,7 @@
         <v>38050</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>176</v>
@@ -8588,7 +8593,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>38047</v>
       </c>
@@ -8614,7 +8619,7 @@
         <v>38049</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>178</v>
@@ -8634,7 +8639,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="48"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>38078</v>
       </c>
@@ -8658,7 +8663,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>56</v>
@@ -8678,7 +8683,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>49</v>
@@ -8698,7 +8703,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>179</v>
@@ -8718,7 +8723,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>38108</v>
       </c>
@@ -8742,7 +8747,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>180</v>
@@ -8762,7 +8767,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38139</v>
       </c>
@@ -8790,7 +8795,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>75</v>
@@ -8810,7 +8815,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>38169</v>
       </c>
@@ -8834,7 +8839,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>49</v>
@@ -8854,7 +8859,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>132</v>
@@ -8874,7 +8879,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>38200</v>
       </c>
@@ -8898,7 +8903,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>76</v>
@@ -8918,7 +8923,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38231</v>
       </c>
@@ -8942,7 +8947,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>56</v>
@@ -8962,7 +8967,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>158</v>
@@ -8982,7 +8987,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38261</v>
       </c>
@@ -9008,7 +9013,7 @@
         <v>38274</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>113</v>
@@ -9030,7 +9035,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>181</v>
@@ -9050,7 +9055,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38292</v>
       </c>
@@ -9076,7 +9081,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>56</v>
@@ -9098,7 +9103,7 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>182</v>
@@ -9118,7 +9123,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38322</v>
       </c>
@@ -9142,7 +9147,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="47" t="s">
         <v>154</v>
       </c>
@@ -9164,7 +9169,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38353</v>
       </c>
@@ -9188,7 +9193,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>186</v>
@@ -9210,7 +9215,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38384</v>
       </c>
@@ -9234,7 +9239,7 @@
         <v>38440</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>187</v>
@@ -9256,7 +9261,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>38412</v>
       </c>
@@ -9280,7 +9285,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>185</v>
@@ -9298,7 +9303,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>188</v>
@@ -9318,7 +9323,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>38443</v>
       </c>
@@ -9344,7 +9349,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>56</v>
@@ -9366,7 +9371,7 @@
         <v>38465</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>56</v>
@@ -9388,7 +9393,7 @@
         <v>38471</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>189</v>
@@ -9408,7 +9413,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>38473</v>
       </c>
@@ -9434,7 +9439,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>80</v>
@@ -9456,7 +9461,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>191</v>
@@ -9476,7 +9481,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38504</v>
       </c>
@@ -9502,7 +9507,7 @@
         <v>38517</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>113</v>
@@ -9524,7 +9529,7 @@
         <v>38524</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>108</v>
@@ -9544,7 +9549,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>38534</v>
       </c>
@@ -9568,7 +9573,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>38565</v>
       </c>
@@ -9594,7 +9599,7 @@
         <v>38580</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>169</v>
@@ -9616,7 +9621,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>38596</v>
       </c>
@@ -9640,7 +9645,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>38626</v>
       </c>
@@ -9664,7 +9669,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>38657</v>
       </c>
@@ -9690,7 +9695,7 @@
         <v>38670</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>199</v>
@@ -9710,7 +9715,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>38687</v>
       </c>
@@ -9736,7 +9741,7 @@
         <v>38699</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>200</v>
@@ -9756,7 +9761,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="47" t="s">
         <v>153</v>
       </c>
@@ -9778,7 +9783,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38718</v>
       </c>
@@ -9802,7 +9807,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>201</v>
@@ -9822,7 +9827,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>38749</v>
       </c>
@@ -9846,7 +9851,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>38777</v>
       </c>
@@ -9870,7 +9875,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>38808</v>
       </c>
@@ -9896,7 +9901,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -9918,7 +9923,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>203</v>
@@ -9938,7 +9943,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>38838</v>
       </c>
@@ -9962,7 +9967,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>38869</v>
       </c>
@@ -9988,7 +9993,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>56</v>
@@ -10010,7 +10015,7 @@
         <v>38895</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>157</v>
@@ -10030,7 +10035,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>38899</v>
       </c>
@@ -10056,7 +10061,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>56</v>
@@ -10078,7 +10083,7 @@
         <v>38904</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>56</v>
@@ -10100,7 +10105,7 @@
         <v>38910</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>80</v>
@@ -10122,7 +10127,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>80</v>
@@ -10144,7 +10149,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>56</v>
@@ -10166,7 +10171,7 @@
         <v>38929</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>205</v>
@@ -10186,7 +10191,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>38930</v>
       </c>
@@ -10212,7 +10217,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>56</v>
@@ -10234,7 +10239,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>49</v>
@@ -10256,7 +10261,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>56</v>
@@ -10278,7 +10283,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>56</v>
@@ -10300,7 +10305,7 @@
         <v>38960</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>206</v>
@@ -10322,7 +10327,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>38961</v>
       </c>
@@ -10346,7 +10351,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>38991</v>
       </c>
@@ -10372,7 +10377,7 @@
         <v>39008</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>119</v>
@@ -10394,7 +10399,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>119</v>
@@ -10416,7 +10421,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>214</v>
@@ -10436,7 +10441,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>39022</v>
       </c>
@@ -10460,7 +10465,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39052</v>
       </c>
@@ -10486,7 +10491,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>216</v>
@@ -10508,7 +10513,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>217</v>
@@ -10528,7 +10533,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="47" t="s">
         <v>152</v>
       </c>
@@ -10550,7 +10555,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>39083</v>
       </c>
@@ -10576,7 +10581,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>228</v>
@@ -10596,7 +10601,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>39114</v>
       </c>
@@ -10622,7 +10627,7 @@
         <v>39133</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>229</v>
@@ -10642,7 +10647,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>39142</v>
       </c>
@@ -10666,7 +10671,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>39173</v>
       </c>
@@ -10692,7 +10697,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>185</v>
@@ -10712,7 +10717,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>231</v>
@@ -10732,7 +10737,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39203</v>
       </c>
@@ -10756,7 +10761,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39234</v>
       </c>
@@ -10780,7 +10785,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>39264</v>
       </c>
@@ -10806,7 +10811,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>235</v>
@@ -10826,7 +10831,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39295</v>
       </c>
@@ -10852,7 +10857,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>236</v>
@@ -10872,7 +10877,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>39326</v>
       </c>
@@ -10898,7 +10903,7 @@
         <v>39336</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>56</v>
@@ -10918,7 +10923,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>237</v>
@@ -10938,7 +10943,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>39356</v>
       </c>
@@ -10962,7 +10967,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>39387</v>
       </c>
@@ -10986,7 +10991,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>227</v>
@@ -11008,7 +11013,7 @@
         <v>39423</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>239</v>
@@ -11030,7 +11035,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>39417</v>
       </c>
@@ -11054,7 +11059,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="47" t="s">
         <v>226</v>
       </c>
@@ -11076,7 +11081,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>39448</v>
       </c>
@@ -11102,7 +11107,7 @@
         <v>39475</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>244</v>
@@ -11122,7 +11127,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39479</v>
       </c>
@@ -11146,7 +11151,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>39508</v>
       </c>
@@ -11170,7 +11175,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>185</v>
@@ -11190,7 +11195,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>80</v>
@@ -11212,7 +11217,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>246</v>
@@ -11232,7 +11237,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39539</v>
       </c>
@@ -11258,7 +11263,7 @@
         <v>39541</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>249</v>
@@ -11278,7 +11283,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>39569</v>
       </c>
@@ -11304,7 +11309,7 @@
         <v>39570</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>185</v>
@@ -11324,7 +11329,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>56</v>
@@ -11346,7 +11351,7 @@
         <v>39597</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>250</v>
@@ -11366,7 +11371,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>39600</v>
       </c>
@@ -11394,7 +11399,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>39630</v>
       </c>
@@ -11418,7 +11423,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>252</v>
@@ -11438,7 +11443,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>39661</v>
       </c>
@@ -11464,7 +11469,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>39692</v>
       </c>
@@ -11490,7 +11495,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>56</v>
@@ -11512,7 +11517,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>254</v>
@@ -11532,7 +11537,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>39722</v>
       </c>
@@ -11558,7 +11563,7 @@
         <v>39745</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>56</v>
@@ -11580,7 +11585,7 @@
         <v>39748</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>255</v>
@@ -11600,7 +11605,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>39753</v>
       </c>
@@ -11626,7 +11631,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>56</v>
@@ -11648,7 +11653,7 @@
         <v>39771</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>56</v>
@@ -11670,7 +11675,7 @@
         <v>39778</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>256</v>
@@ -11690,7 +11695,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>39783</v>
       </c>
@@ -11714,7 +11719,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="47" t="s">
         <v>225</v>
       </c>
@@ -11736,7 +11741,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>39814</v>
       </c>
@@ -11762,7 +11767,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>262</v>
@@ -11782,7 +11787,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>39845</v>
       </c>
@@ -11806,7 +11811,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>39873</v>
       </c>
@@ -11828,7 +11833,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>264</v>
@@ -11848,7 +11853,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>39904</v>
       </c>
@@ -11874,7 +11879,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>39934</v>
       </c>
@@ -11900,7 +11905,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>185</v>
@@ -11920,7 +11925,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>56</v>
@@ -11942,7 +11947,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>266</v>
@@ -11962,7 +11967,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>39965</v>
       </c>
@@ -11988,7 +11993,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>39995</v>
       </c>
@@ -12014,7 +12019,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>268</v>
@@ -12034,7 +12039,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40026</v>
       </c>
@@ -12058,7 +12063,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>40057</v>
       </c>
@@ -12084,7 +12089,7 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>56</v>
@@ -12106,7 +12111,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>270</v>
@@ -12128,7 +12133,7 @@
         <v>40072</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>40087</v>
       </c>
@@ -12154,7 +12159,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40118</v>
       </c>
@@ -12180,7 +12185,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>40148</v>
       </c>
@@ -12206,7 +12211,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>277</v>
@@ -12226,7 +12231,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="47" t="s">
         <v>224</v>
       </c>
@@ -12248,7 +12253,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>40179</v>
       </c>
@@ -12272,7 +12277,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>280</v>
@@ -12294,7 +12299,7 @@
         <v>40207</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40210</v>
       </c>
@@ -12320,7 +12325,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>281</v>
@@ -12340,7 +12345,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>40238</v>
       </c>
@@ -12366,7 +12371,7 @@
         <v>40255</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>282</v>
@@ -12386,7 +12391,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -12408,7 +12413,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>284</v>
@@ -12430,7 +12435,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>40269</v>
       </c>
@@ -12456,7 +12461,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40299</v>
       </c>
@@ -12482,7 +12487,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>284</v>
@@ -12504,7 +12509,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>285</v>
@@ -12526,7 +12531,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40330</v>
       </c>
@@ -12552,7 +12557,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>296</v>
@@ -12575,7 +12580,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>40360</v>
       </c>
@@ -12599,7 +12604,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>40391</v>
       </c>
@@ -12625,7 +12630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>40422</v>
       </c>
@@ -12651,7 +12656,7 @@
         <v>40443</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40452</v>
       </c>
@@ -12677,7 +12682,7 @@
         <v>40456</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>40483</v>
       </c>
@@ -12703,7 +12708,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40513</v>
       </c>
@@ -12727,7 +12732,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="47" t="s">
         <v>223</v>
       </c>
@@ -12749,7 +12754,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40544</v>
       </c>
@@ -12773,7 +12778,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>40575</v>
       </c>
@@ -12797,7 +12802,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>40603</v>
       </c>
@@ -12823,7 +12828,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>185</v>
@@ -12843,7 +12848,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>185</v>
@@ -12863,7 +12868,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>306</v>
@@ -12883,7 +12888,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>40634</v>
       </c>
@@ -12907,7 +12912,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>40664</v>
       </c>
@@ -12933,7 +12938,7 @@
         <v>40688</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>56</v>
@@ -12955,7 +12960,7 @@
         <v>40693</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>308</v>
@@ -12975,7 +12980,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>40695</v>
       </c>
@@ -12999,7 +13004,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40725</v>
       </c>
@@ -13025,7 +13030,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>56</v>
@@ -13045,7 +13050,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="48"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>312</v>
@@ -13065,7 +13070,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="48"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40756</v>
       </c>
@@ -13089,7 +13094,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>131</v>
@@ -13109,7 +13114,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>40787</v>
       </c>
@@ -13133,7 +13138,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>80</v>
@@ -13153,7 +13158,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>313</v>
@@ -13173,7 +13178,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>40817</v>
       </c>
@@ -13197,7 +13202,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>314</v>
@@ -13217,7 +13222,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40848</v>
       </c>
@@ -13241,7 +13246,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>40878</v>
       </c>
@@ -13265,7 +13270,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>316</v>
@@ -13285,7 +13290,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="47" t="s">
         <v>222</v>
       </c>
@@ -13307,7 +13312,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>40909</v>
       </c>
@@ -13333,7 +13338,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>80</v>
@@ -13355,7 +13360,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>317</v>
@@ -13377,7 +13382,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>40940</v>
       </c>
@@ -13401,7 +13406,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>185</v>
@@ -13421,7 +13426,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>185</v>
@@ -13441,7 +13446,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>318</v>
@@ -13461,7 +13466,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40969</v>
       </c>
@@ -13485,7 +13490,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>41000</v>
       </c>
@@ -13509,7 +13514,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>56</v>
@@ -13529,7 +13534,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>326</v>
@@ -13549,7 +13554,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>41030</v>
       </c>
@@ -13573,7 +13578,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>56</v>
@@ -13593,7 +13598,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>327</v>
@@ -13613,7 +13618,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>41061</v>
       </c>
@@ -13637,7 +13642,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41091</v>
       </c>
@@ -13661,7 +13666,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>329</v>
@@ -13681,7 +13686,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>41122</v>
       </c>
@@ -13705,7 +13710,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>49</v>
@@ -13725,7 +13730,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>285</v>
@@ -13745,7 +13750,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>57</v>
@@ -13765,7 +13770,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>41153</v>
       </c>
@@ -13789,7 +13794,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>41183</v>
       </c>
@@ -13813,7 +13818,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>331</v>
@@ -13833,7 +13838,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41214</v>
       </c>
@@ -13857,7 +13862,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>41244</v>
       </c>
@@ -13881,7 +13886,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>333</v>
@@ -13901,7 +13906,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="47" t="s">
         <v>221</v>
       </c>
@@ -13923,7 +13928,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>41275</v>
       </c>
@@ -13947,7 +13952,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>41306</v>
       </c>
@@ -13973,7 +13978,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41334</v>
       </c>
@@ -13995,7 +14000,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>41365</v>
       </c>
@@ -14021,7 +14026,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>41395</v>
       </c>
@@ -14045,7 +14050,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>41426</v>
       </c>
@@ -14071,7 +14076,7 @@
         <v>41439</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>56</v>
@@ -14093,7 +14098,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>337</v>
@@ -14113,7 +14118,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>41456</v>
       </c>
@@ -14137,7 +14142,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41487</v>
       </c>
@@ -14161,7 +14166,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>41518</v>
       </c>
@@ -14185,7 +14190,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>41548</v>
       </c>
@@ -14209,7 +14214,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>41579</v>
       </c>
@@ -14235,7 +14240,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>342</v>
@@ -14255,7 +14260,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41609</v>
       </c>
@@ -14279,7 +14284,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="47" t="s">
         <v>220</v>
       </c>
@@ -14301,7 +14306,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41640</v>
       </c>
@@ -14325,7 +14330,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41671</v>
       </c>
@@ -14351,7 +14356,7 @@
         <v>41694</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>185</v>
@@ -14371,7 +14376,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>355</v>
@@ -14391,7 +14396,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>41699</v>
       </c>
@@ -14415,7 +14420,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>41730</v>
       </c>
@@ -14441,7 +14446,7 @@
         <v>41757</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>185</v>
@@ -14461,7 +14466,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>357</v>
@@ -14481,7 +14486,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41760</v>
       </c>
@@ -14507,7 +14512,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>358</v>
@@ -14527,7 +14532,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>41791</v>
       </c>
@@ -14551,7 +14556,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>41821</v>
       </c>
@@ -14577,7 +14582,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>56</v>
@@ -14597,7 +14602,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>360</v>
@@ -14617,7 +14622,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41852</v>
       </c>
@@ -14641,7 +14646,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>41883</v>
       </c>
@@ -14667,7 +14672,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>362</v>
@@ -14687,7 +14692,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41913</v>
       </c>
@@ -14711,7 +14716,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>41944</v>
       </c>
@@ -14737,7 +14742,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>368</v>
@@ -14757,7 +14762,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>41974</v>
       </c>
@@ -14779,7 +14784,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>369</v>
@@ -14799,7 +14804,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="47" t="s">
         <v>353</v>
       </c>
@@ -14821,7 +14826,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>42005</v>
       </c>
@@ -14845,7 +14850,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>42036</v>
       </c>
@@ -14871,7 +14876,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>371</v>
@@ -14891,7 +14896,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>42064</v>
       </c>
@@ -14915,7 +14920,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>56</v>
@@ -14937,7 +14942,7 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>372</v>
@@ -14957,7 +14962,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>251</v>
@@ -14977,7 +14982,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>42095</v>
       </c>
@@ -15007,7 +15012,7 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>373</v>
@@ -15027,7 +15032,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>42125</v>
       </c>
@@ -15053,7 +15058,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>374</v>
@@ -15073,7 +15078,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>42156</v>
       </c>
@@ -15099,7 +15104,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>375</v>
@@ -15119,7 +15124,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>42186</v>
       </c>
@@ -15143,7 +15148,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>42217</v>
       </c>
@@ -15169,7 +15174,7 @@
         <v>42244</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>56</v>
@@ -15191,7 +15196,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>380</v>
@@ -15211,7 +15216,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>42248</v>
       </c>
@@ -15235,7 +15240,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>42278</v>
       </c>
@@ -15261,7 +15266,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>382</v>
@@ -15281,7 +15286,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>42309</v>
       </c>
@@ -15307,7 +15312,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>383</v>
@@ -15327,7 +15332,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>42339</v>
       </c>
@@ -15353,7 +15358,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>384</v>
@@ -15373,7 +15378,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="47" t="s">
         <v>352</v>
       </c>
@@ -15395,7 +15400,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>42370</v>
       </c>
@@ -15415,7 +15420,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>42401</v>
       </c>
@@ -15435,7 +15440,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>42430</v>
       </c>
@@ -15459,7 +15464,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>56</v>
@@ -15481,7 +15486,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>42461</v>
       </c>
@@ -15501,7 +15506,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>42491</v>
       </c>
@@ -15521,7 +15526,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42522</v>
       </c>
@@ -15541,7 +15546,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>42552</v>
       </c>
@@ -15561,7 +15566,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>42583</v>
       </c>
@@ -15587,7 +15592,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>56</v>
@@ -15609,7 +15614,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>42614</v>
       </c>
@@ -15635,7 +15640,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>42644</v>
       </c>
@@ -15655,7 +15660,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>42675</v>
       </c>
@@ -15679,7 +15684,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>42705</v>
       </c>
@@ -15703,7 +15708,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>268</v>
@@ -15723,7 +15728,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="47" t="s">
         <v>351</v>
       </c>
@@ -15745,7 +15750,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>42736</v>
       </c>
@@ -15771,7 +15776,7 @@
         <v>42708</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>56</v>
@@ -15793,7 +15798,7 @@
         <v>42761</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>387</v>
@@ -15815,7 +15820,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>42767</v>
       </c>
@@ -15841,7 +15846,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>388</v>
@@ -15861,7 +15866,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>42795</v>
       </c>
@@ -15885,7 +15890,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>42826</v>
       </c>
@@ -15911,7 +15916,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>42856</v>
       </c>
@@ -15937,7 +15942,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>185</v>
@@ -15957,7 +15962,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>391</v>
@@ -15977,7 +15982,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>42887</v>
       </c>
@@ -16001,7 +16006,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42917</v>
       </c>
@@ -16025,7 +16030,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>42948</v>
       </c>
@@ -16049,7 +16054,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>42979</v>
       </c>
@@ -16069,7 +16074,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43009</v>
       </c>
@@ -16095,7 +16100,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>398</v>
@@ -16117,7 +16122,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43040</v>
       </c>
@@ -16143,7 +16148,7 @@
         <v>43085</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43070</v>
       </c>
@@ -16169,7 +16174,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="47" t="s">
         <v>350</v>
       </c>
@@ -16191,7 +16196,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43101</v>
       </c>
@@ -16215,7 +16220,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43132</v>
       </c>
@@ -16235,7 +16240,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43160</v>
       </c>
@@ -16255,7 +16260,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>43191</v>
       </c>
@@ -16275,7 +16280,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43221</v>
       </c>
@@ -16299,7 +16304,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>43252</v>
       </c>
@@ -16325,7 +16330,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>402</v>
@@ -16345,7 +16350,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43282</v>
       </c>
@@ -16365,7 +16370,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43313</v>
       </c>
@@ -16389,7 +16394,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>43344</v>
       </c>
@@ -16413,7 +16418,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43374</v>
       </c>
@@ -16439,7 +16444,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>185</v>
@@ -16459,7 +16464,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>405</v>
@@ -16479,7 +16484,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>43405</v>
       </c>
@@ -16503,7 +16508,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>43435</v>
       </c>
@@ -16529,7 +16534,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>406</v>
@@ -16549,7 +16554,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="47" t="s">
         <v>349</v>
       </c>
@@ -16571,7 +16576,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>43466</v>
       </c>
@@ -16591,7 +16596,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>43497</v>
       </c>
@@ -16615,7 +16620,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>43525</v>
       </c>
@@ -16641,7 +16646,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>43556</v>
       </c>
@@ -16667,7 +16672,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>56</v>
@@ -16689,7 +16694,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>43586</v>
       </c>
@@ -16715,7 +16720,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>43617</v>
       </c>
@@ -16735,7 +16740,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43647</v>
       </c>
@@ -16755,7 +16760,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>43678</v>
       </c>
@@ -16775,7 +16780,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>43709</v>
       </c>
@@ -16801,7 +16806,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>56</v>
@@ -16823,7 +16828,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>43739</v>
       </c>
@@ -16849,7 +16854,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>185</v>
@@ -16869,7 +16874,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>56</v>
@@ -16891,7 +16896,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>43770</v>
       </c>
@@ -16911,7 +16916,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>43800</v>
       </c>
@@ -16937,7 +16942,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="47" t="s">
         <v>348</v>
       </c>
@@ -16959,7 +16964,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>43831</v>
       </c>
@@ -16985,7 +16990,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>43862</v>
       </c>
@@ -17005,7 +17010,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>43891</v>
       </c>
@@ -17025,7 +17030,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>43922</v>
       </c>
@@ -17045,7 +17050,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>43952</v>
       </c>
@@ -17065,7 +17070,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>43983</v>
       </c>
@@ -17085,7 +17090,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44013</v>
       </c>
@@ -17111,7 +17116,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44044</v>
       </c>
@@ -17131,7 +17136,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44075</v>
       </c>
@@ -17151,7 +17156,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44105</v>
       </c>
@@ -17177,7 +17182,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>44136</v>
       </c>
@@ -17197,7 +17202,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44166</v>
       </c>
@@ -17217,7 +17222,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="47" t="s">
         <v>347</v>
       </c>
@@ -17239,7 +17244,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>44197</v>
       </c>
@@ -17259,7 +17264,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44228</v>
       </c>
@@ -17285,7 +17290,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44256</v>
       </c>
@@ -17305,7 +17310,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44287</v>
       </c>
@@ -17325,7 +17330,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>44317</v>
       </c>
@@ -17345,7 +17350,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>44348</v>
       </c>
@@ -17371,7 +17376,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>49</v>
@@ -17393,7 +17398,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>47</v>
@@ -17415,7 +17420,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>412</v>
@@ -17437,7 +17442,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>44378</v>
       </c>
@@ -17463,7 +17468,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>44409</v>
       </c>
@@ -17487,7 +17492,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>44440</v>
       </c>
@@ -17507,7 +17512,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>44470</v>
       </c>
@@ -17527,7 +17532,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44501</v>
       </c>
@@ -17547,7 +17552,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44531</v>
       </c>
@@ -17573,7 +17578,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>56</v>
@@ -17593,7 +17598,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="47" t="s">
         <v>346</v>
       </c>
@@ -17615,7 +17620,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>44562</v>
       </c>
@@ -17641,7 +17646,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44593</v>
       </c>
@@ -17667,7 +17672,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>185</v>
@@ -17687,7 +17692,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>44621</v>
       </c>
@@ -17707,7 +17712,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>44652</v>
       </c>
@@ -17727,7 +17732,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>44682</v>
       </c>
@@ -17753,7 +17758,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>79</v>
@@ -17773,7 +17778,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="48"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>44713</v>
       </c>
@@ -17797,7 +17802,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>44743</v>
       </c>
@@ -17821,7 +17826,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>44774</v>
       </c>
@@ -17847,7 +17852,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>44805</v>
       </c>
@@ -17871,7 +17876,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>56</v>
@@ -17893,7 +17898,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>44835</v>
       </c>
@@ -17917,7 +17922,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>56</v>
@@ -17939,7 +17944,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>44866</v>
       </c>
@@ -17965,7 +17970,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>267</v>
@@ -17985,7 +17990,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44896</v>
       </c>
@@ -18005,7 +18010,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>185</v>
@@ -18025,7 +18030,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>63</v>
@@ -18047,7 +18052,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="47" t="s">
         <v>416</v>
       </c>
@@ -18065,7 +18070,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>44927</v>
       </c>
@@ -18085,7 +18090,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>44958</v>
       </c>
@@ -18111,7 +18116,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>56</v>
@@ -18133,7 +18138,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>282</v>
@@ -18153,7 +18158,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>56</v>
@@ -18175,7 +18180,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44986</v>
       </c>
@@ -18195,7 +18200,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>45017</v>
       </c>
@@ -18221,7 +18226,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>80</v>
@@ -18243,7 +18248,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>45047</v>
       </c>
@@ -18267,7 +18272,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>45078</v>
       </c>
@@ -18287,7 +18292,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>45108</v>
       </c>
@@ -18313,7 +18318,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>56</v>
@@ -18335,7 +18340,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>45139</v>
       </c>
@@ -18361,7 +18366,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>56</v>
@@ -18383,7 +18388,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>56</v>
@@ -18405,7 +18410,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>56</v>
@@ -18427,7 +18432,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>56</v>
@@ -18449,7 +18454,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>45170</v>
       </c>
@@ -18472,7 +18477,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>56</v>
@@ -18494,15 +18499,19 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>45200</v>
       </c>
-      <c r="B627" s="20"/>
+      <c r="B627" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="C627" s="13">
         <v>1.25</v>
       </c>
-      <c r="D627" s="39"/>
+      <c r="D627" s="39">
+        <v>1</v>
+      </c>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
       <c r="G627" s="13">
@@ -18512,17 +18521,23 @@
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
-      <c r="K627" s="20"/>
-    </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K627" s="48">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>45231</v>
       </c>
-      <c r="B628" s="20"/>
+      <c r="B628" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="C628" s="13">
         <v>1.25</v>
       </c>
-      <c r="D628" s="39"/>
+      <c r="D628" s="39">
+        <v>1</v>
+      </c>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
       <c r="G628" s="13">
@@ -18532,17 +18547,23 @@
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
-      <c r="K628" s="20"/>
-    </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K628" s="48">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>45261</v>
       </c>
-      <c r="B629" s="20"/>
+      <c r="B629" s="20" t="s">
+        <v>432</v>
+      </c>
       <c r="C629" s="13">
         <v>1.25</v>
       </c>
-      <c r="D629" s="39"/>
+      <c r="D629" s="39">
+        <v>4</v>
+      </c>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
       <c r="G629" s="13">
@@ -18552,9 +18573,11 @@
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="20"/>
-    </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K629" s="20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="47" t="s">
         <v>431</v>
       </c>
@@ -18572,7 +18595,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>45322</v>
       </c>
@@ -18592,7 +18615,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>45351</v>
       </c>
@@ -18612,7 +18635,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>45382</v>
       </c>
@@ -18632,7 +18655,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18648,7 +18671,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18664,7 +18687,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18680,7 +18703,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18696,7 +18719,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18712,7 +18735,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18728,7 +18751,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18744,7 +18767,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18760,7 +18783,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18776,7 +18799,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18792,7 +18815,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18808,7 +18831,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18824,7 +18847,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18840,7 +18863,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18856,7 +18879,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18872,7 +18895,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18888,7 +18911,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18904,7 +18927,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18920,7 +18943,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18936,7 +18959,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18952,7 +18975,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18968,7 +18991,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18984,7 +19007,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -19000,7 +19023,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -19016,7 +19039,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -19032,7 +19055,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -19048,8 +19071,8 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A660" s="61"/>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A660" s="49"/>
       <c r="B660" s="15"/>
       <c r="C660" s="41"/>
       <c r="D660" s="42"/>
@@ -19079,10 +19102,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19105,97 +19128,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB45219-0403-4014-BB28-3B8A18038863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A45" activePane="bottomLeft"/>
+      <pane ySplit="3720" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
       <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -19203,7 +19226,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -19216,24 +19239,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -19268,7 +19291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -19292,7 +19315,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -19314,7 +19337,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34060</v>
       </c>
@@ -19334,7 +19357,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34090</v>
       </c>
@@ -19354,7 +19377,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34121</v>
       </c>
@@ -19374,7 +19397,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34151</v>
       </c>
@@ -19394,7 +19417,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34182</v>
       </c>
@@ -19414,7 +19437,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34213</v>
       </c>
@@ -19434,7 +19457,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34243</v>
       </c>
@@ -19454,7 +19477,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34274</v>
       </c>
@@ -19474,7 +19497,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34304</v>
       </c>
@@ -19500,7 +19523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>45</v>
       </c>
@@ -19522,7 +19545,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34335</v>
       </c>
@@ -19542,7 +19565,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>34366</v>
       </c>
@@ -19562,7 +19585,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34394</v>
       </c>
@@ -19582,7 +19605,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>34425</v>
       </c>
@@ -19602,7 +19625,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34455</v>
       </c>
@@ -19626,7 +19649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>44</v>
       </c>
@@ -19644,7 +19667,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34700</v>
       </c>
@@ -19668,7 +19691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>34820</v>
       </c>
@@ -19692,7 +19715,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>34851</v>
       </c>
@@ -19716,7 +19739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35004</v>
       </c>
@@ -19740,7 +19763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>54</v>
       </c>
@@ -19758,7 +19781,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35125</v>
       </c>
@@ -19769,7 +19792,7 @@
       <c r="D32" s="42">
         <v>5</v>
       </c>
-      <c r="E32" s="62"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="15"/>
       <c r="G32" s="41" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
@@ -19782,7 +19805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35156</v>
       </c>
@@ -19791,7 +19814,7 @@
       </c>
       <c r="C33" s="41"/>
       <c r="D33" s="42"/>
-      <c r="E33" s="62"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="15"/>
       <c r="G33" s="41" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
@@ -19806,7 +19829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35278</v>
       </c>
@@ -19830,7 +19853,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>53</v>
       </c>
@@ -19848,7 +19871,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>35431</v>
       </c>
@@ -19872,7 +19895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35612</v>
       </c>
@@ -19896,7 +19919,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>56</v>
@@ -19918,7 +19941,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35674</v>
       </c>
@@ -19942,7 +19965,7 @@
         <v>35683</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35704</v>
       </c>
@@ -19953,18 +19976,18 @@
       <c r="D40" s="42">
         <v>15</v>
       </c>
-      <c r="E40" s="62"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="15"/>
       <c r="G40" s="41" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H40" s="42"/>
-      <c r="I40" s="62"/>
+      <c r="I40" s="50"/>
       <c r="J40" s="12"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35735</v>
       </c>
@@ -19988,7 +20011,7 @@
         <v>35745</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>52</v>
       </c>
@@ -20006,7 +20029,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35916</v>
       </c>
@@ -20030,7 +20053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36008</v>
       </c>
@@ -20054,7 +20077,7 @@
         <v>36028</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36039</v>
       </c>
@@ -20078,25 +20101,25 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="41"/>
       <c r="D46" s="42"/>
-      <c r="E46" s="62"/>
+      <c r="E46" s="50"/>
       <c r="F46" s="15"/>
       <c r="G46" s="41" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H46" s="42"/>
-      <c r="I46" s="62"/>
+      <c r="I46" s="50"/>
       <c r="J46" s="12"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36161</v>
       </c>
@@ -20120,7 +20143,7 @@
         <v>36178</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36192</v>
       </c>
@@ -20144,7 +20167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -20160,7 +20183,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -20176,7 +20199,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -20192,7 +20215,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -20208,7 +20231,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -20224,7 +20247,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -20240,8 +20263,8 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="49"/>
       <c r="B55" s="15"/>
       <c r="C55" s="41"/>
       <c r="D55" s="42"/>
@@ -20271,10 +20294,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{123E8901-735B-4F81-AB0E-1D8077C1DE5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{0CB5A112-A281-4FA9-8838-9EC947081C45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20297,7 +20320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20305,34 +20328,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20361,7 +20384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>9.875</v>
       </c>
@@ -20391,17 +20414,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20415,14 +20438,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20449,7 +20472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20475,7 +20498,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20501,7 +20524,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20527,7 +20550,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20553,7 +20576,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20579,7 +20602,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20605,7 +20628,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20631,7 +20654,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20651,7 +20674,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20671,7 +20694,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20691,7 +20714,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20712,7 +20735,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20733,7 +20756,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20754,7 +20777,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20775,7 +20798,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20796,7 +20819,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20817,7 +20840,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20838,7 +20861,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20859,7 +20882,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20880,7 +20903,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20901,7 +20924,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20922,7 +20945,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20943,7 +20966,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20964,7 +20987,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20985,7 +21008,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21006,7 +21029,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21027,7 +21050,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21048,7 +21071,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21069,7 +21092,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21090,7 +21113,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21111,7 +21134,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21120,7 +21143,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21129,7 +21152,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21138,7 +21161,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21147,7 +21170,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21156,7 +21179,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21165,7 +21188,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21174,7 +21197,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21183,7 +21206,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21192,7 +21215,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21201,7 +21224,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21210,7 +21233,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21219,7 +21242,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21228,7 +21251,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21237,7 +21260,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21246,7 +21269,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21255,7 +21278,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21264,7 +21287,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21273,7 +21296,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21282,7 +21305,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21291,7 +21314,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21300,7 +21323,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21309,7 +21332,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21318,7 +21341,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21327,7 +21350,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21336,7 +21359,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21345,7 +21368,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21354,7 +21377,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21363,7 +21386,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21372,7 +21395,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
